--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="wwPcqlJVpNYT/CtMD3xfW28PO7Og5W8LWup2dRKOd7c="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="9FxOch52q4C6Uo1SqyduPqYV0NJvqziDh9zG0riVQto="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="168">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -72,31 +72,23 @@
 対象年月・週を追加</t>
   </si>
   <si>
+    <t>・画面画像の差し替え
+・サイトバーの追加（他の画面でも共通）
+・データグリッドに列「ID」を削除
+・年月・週のリンクを削除
+・対象の名称を削除
+・ページングの最初と最後を追加
+・バリデーションチェックの追加と修正</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、対象週とタレントで検索を行い、検索結果を表示する。
-・番組のリンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>・IDのリンクボタンをクリック時に、次画面「オンエア管理登録（更新モード）」へ遷移する。
-・対象年月・週のリンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
-    </r>
+    <t>・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、対象週とタレントで検索を行い、検索結果を表示する。
+・番組のリンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -144,13 +136,23 @@
     <t>初期表示時</t>
   </si>
   <si>
-    <t>検索条件部と番組検索結果を表示する。</t>
-  </si>
-  <si>
-    <t>IDクリック時</t>
-  </si>
-  <si>
-    <t>リンクボタンをクリック時に、次画面「オンエア管理登録（更新モード）」へ遷移する。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>前画面からの各パラメータに対して、バリデーションチェックを行い、</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+検索条件部と番組検索結果を表示する。</t>
+    </r>
   </si>
   <si>
     <t>番組名クリック時</t>
@@ -159,16 +161,28 @@
     <t>リンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
   </si>
   <si>
+    <t>最初リンククリック時</t>
+  </si>
+  <si>
+    <t>ページングの先頭に移動する。</t>
+  </si>
+  <si>
     <t>ページングリンククリック時</t>
   </si>
   <si>
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
   </si>
   <si>
-    <t>対象年月・週クリック時</t>
+    <t>最後リンククリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+    <t>ページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t>TOPリンククリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -201,12 +215,40 @@
     <t>lable</t>
   </si>
   <si>
-    <t xml:space="preserve">初期表示時に、
-以下のバリデーションチェックでエラーの場合、表示
-① タレントID、対象年月、対象週が必須で設定されていること。
-② 対象年月がYYYY/MM形式であること。
-③ 対象週が数値かつ、1～5の数値のいずれかであること。
-④ タレントIDが8桁以内であること。 </t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">初期表示時に、
+以下のバリデーションチェックでエラーの場合、エラーメッセージを表示する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">　・前画面からのパラメータは年月、週、タレントIDは必須で
+　　入力されていること。
+　・年月がYYYYMM形式であること。
+　・年月がYYYY/MM/01で有効な日付であること。
+　・週が数値であること。
+　・週が1～5の数値のいずれかであること。
+　・タレントIDが設定されている場合は、8桁以内であること。
+　→ビジネスルールに詳しく記載。</t>
+    </r>
+  </si>
+  <si>
+    <t>（ヘッダー項目）</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
   </si>
   <si>
     <t>（出演者情報）</t>
@@ -305,15 +347,10 @@
     <t>（対象週情報）</t>
   </si>
   <si>
-    <t>対象年月・週</t>
+    <t>【年月・週】</t>
   </si>
   <si>
-    <t>linkbutton</t>
-  </si>
-  <si>
-    <t>IDにリンクボタンの設定を行う。
-クリック時にキーを渡して、画面遷移する。
-（形式： 対象年月(YYYY/MM) W週）</t>
+    <t>YYYY/MM W週の形式で表示する。</t>
   </si>
   <si>
     <t>パラメータ
@@ -332,26 +369,10 @@
 １桁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">対象週(FROM)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>（※設定必須）</t>
-    </r>
+    <t>【週・日付】(FROM)</t>
   </si>
   <si>
-    <t>取得した対象週(FROM)を対象週(FROM)として表示する。</t>
+    <t>取得した週の開始日（日曜日）を週・日付(FROM)として表示する。</t>
   </si>
   <si>
     <t>年月週管理マスタ</t>
@@ -372,26 +393,10 @@
     <t>～</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">対象週(TO)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="游ゴシック"/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>（※設定必須）</t>
-    </r>
+    <t>【週・日付】(TO)</t>
   </si>
   <si>
-    <t>取得した対象週(TO)を対象週(TO)として表示する。</t>
+    <t>取得した週の終了日（土曜日）を週・日付(TO)として表示する。</t>
   </si>
   <si>
     <t>週の終了日（土曜日）</t>
@@ -406,20 +411,10 @@
     <t>（検索条件）</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>出演番組</t>
   </si>
   <si>
     <t>ヘッダー</t>
-  </si>
-  <si>
-    <t>IDにリンクボタンの設定を行う。
-クリック時にキーを渡して、画面遷移する。</t>
-  </si>
-  <si>
-    <t>オンエア管理テーブル</t>
-  </si>
-  <si>
-    <t>出演番組</t>
   </si>
   <si>
     <t>番組名にリンクボタンの設定を行う。
@@ -505,6 +500,9 @@
     <t>対象の出演者が対象週に出演する番組名のオンエア日の日付のみを表示する。</t>
   </si>
   <si>
+    <t>オンエア管理テーブル</t>
+  </si>
+  <si>
     <t>日付型</t>
   </si>
   <si>
@@ -564,10 +562,22 @@
     <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、番組IDを取得して、番組マスタ.番組IDと紐づけて、ジャンルIDを取得して、区分ジャンルマスタ.ジャンルID＝1（固定）、区分ジャンルマスタ.順序と紐づけて、区分ジャンルマスタ.ジャンル名を番組ジャンルとして表示する。</t>
   </si>
   <si>
+    <t>最初</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+  </si>
+  <si>
     <t>ページングリンク</t>
   </si>
   <si>
     <t>検索結果が10件を超える場合に表示する。ページングリンクで次の10件、前の10件へ遷移できるようにする。（１，２，３，・・・【最終ページ番号】）</t>
+  </si>
+  <si>
+    <t>最後</t>
+  </si>
+  <si>
+    <t>結果結果のグリッドのページングの最後に移動する。</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
@@ -577,22 +587,70 @@
 </t>
   </si>
   <si>
+    <t>最初クリック時</t>
+  </si>
+  <si>
+    <t>最後クリック時</t>
+  </si>
+  <si>
     <t>2. 処理詳細</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.1 初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-1. API「タレント週間出演情報検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
+    <t xml:space="preserve">　　2-1-1. 以下のバリデーションチェックを行う。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-2.【2-2-1】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
+    <t xml:space="preserve">　 ① 前画面からのパラメータは年月、週、タレントIDは必須で入力されていること。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-3.【2-2-1】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
+    <t>（MSG006）</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-4.【2-2-1】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
+    <t xml:space="preserve">　 ② 年月がYYYYMM形式であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）年月、有効な日付の年月（YYYYMM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ③ 年月がYYYY/MM/01で有効な日付であること。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ④ 週が数値であること。</t>
+  </si>
+  <si>
+    <t>（MSG003）週、数値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑤ 週が1～5の数値のいずれかであること。</t>
+  </si>
+  <si>
+    <t>（MSG004）週、1、5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　 ⑥ タレントIDが設定されている場合は、8桁以内であること。</t>
+  </si>
+  <si>
+    <t>（MSG005）タレントID、8文字</t>
+  </si>
+  <si>
+    <t>上記で、問題があった場合は、処理を中断して、画面の上部にエラーメッセージを表示する。</t>
+  </si>
+  <si>
+    <t>問題がなかった場合は、以降の処理を続ける。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-2. API「タレント週間出演情報検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-3.【2-1-2】で取得した結果が存在する場合は、レスポンスの内容を対象週(FROM)～対象週(TO)とデータ部へ設定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-4.【2-1-2】で取得した結果がない場合は、対象週(FROM)～対象週(TO)とヘッダーのみを表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-5.【2-1-2】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 番組名クリック時</t>
@@ -601,10 +659,10 @@
     <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 IDクリック時</t>
+    <t xml:space="preserve"> 2.3 最初クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-3-1.IDをキーとして、次画面「オンエア管理登録（更新モード）」」へ遷移する。</t>
+    <t xml:space="preserve">　　2-3-1. ページングの先頭に移動する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.4 ページングリンククリック時</t>
@@ -613,10 +671,16 @@
     <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.5 対象年月・週クリック時</t>
+    <t xml:space="preserve"> 2.5 最後クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-5-1. リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+    <t xml:space="preserve">　　2-5-1. ページングの最後に移動する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6 TOPリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -626,7 +690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -641,6 +705,11 @@
     <font/>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
     </font>
@@ -650,9 +719,17 @@
       <name val="游ゴシック"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -660,9 +737,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -775,6 +852,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -786,17 +874,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -848,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -889,19 +966,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -909,16 +986,31 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -939,22 +1031,64 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -963,44 +1097,23 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1011,14 +1124,32 @@
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1029,7 +1160,7 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1038,32 +1169,68 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,28 +1250,57 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>-133350</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9124950" cy="5305425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="10201275" cy="5181600"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667997" cy="5414368"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667997" cy="5414368"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667997" cy="5414368"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -1384,9 +1580,9 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45317.0</v>
+        <v>45322.0</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="6"/>
@@ -1409,192 +1605,200 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>1.0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>45043.0</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="19">
         <v>45129.0</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>45317.0</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+    <row r="8" ht="135.75" customHeight="1">
+      <c r="B8" s="22">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45322.0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2611,13 +2815,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2651,13 +2855,13 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="11">
         <v>45043.0</v>
       </c>
@@ -2665,9 +2869,9 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45317.0</v>
+        <v>45322.0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -2715,7 +2919,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3473,7 +3677,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3502,8 +3706,8 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="24" t="s">
-        <v>19</v>
+      <c r="B32" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3532,8 +3736,8 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="B33" s="30"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3555,8 +3759,13 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3578,13 +3787,13 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3606,7 +3815,9 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -3634,11 +3845,15 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>20</v>
+      <c r="B37" s="32" t="s">
+        <v>22</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3664,14 +3879,14 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="27" t="s">
-        <v>21</v>
+      <c r="B38" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>22</v>
+      <c r="C38" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>23</v>
+      <c r="D38" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3698,14 +3913,14 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="12" t="s">
-        <v>24</v>
+      <c r="B39" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -3732,14 +3947,14 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="28" t="s">
-        <v>27</v>
+      <c r="B40" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -3766,15 +3981,9 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3800,9 +4009,11 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3828,11 +4039,13 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>31</v>
+      <c r="B43" s="32" t="s">
+        <v>33</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="27"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3856,15 +4069,15 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" ht="42.0" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="27" t="s">
-        <v>32</v>
+      <c r="B44" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>33</v>
+      <c r="C44" s="36" t="s">
+        <v>36</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3888,15 +4101,15 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="33.75" customHeight="1">
+    <row r="45" ht="48.0" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>35</v>
+      <c r="C45" s="37" t="s">
+        <v>38</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3920,15 +4133,15 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="48.0" customHeight="1">
+    <row r="46" ht="38.25" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="32" t="s">
-        <v>36</v>
+      <c r="B46" s="38" t="s">
+        <v>39</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>37</v>
+      <c r="C46" s="39" t="s">
+        <v>40</v>
       </c>
-      <c r="D46" s="22"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3952,15 +4165,15 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="48.0" customHeight="1">
+    <row r="47" ht="38.25" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="12" t="s">
-        <v>38</v>
+      <c r="B47" s="40" t="s">
+        <v>41</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>39</v>
+      <c r="C47" s="37" t="s">
+        <v>42</v>
       </c>
-      <c r="D47" s="22"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3984,15 +4197,15 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="38.25" customHeight="1">
+    <row r="48" ht="48.0" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="34" t="s">
-        <v>40</v>
+      <c r="B48" s="41" t="s">
+        <v>43</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>41</v>
+      <c r="C48" s="42" t="s">
+        <v>44</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -4016,37 +4229,37 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="48.0" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="32" t="s">
-        <v>42</v>
+    <row r="49" ht="42.75" customHeight="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>43</v>
+      <c r="C49" s="39" t="s">
+        <v>46</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="45"/>
+      <c r="Z49" s="45"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
@@ -4078,16 +4291,12 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -4111,14 +4320,14 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -4142,32 +4351,20 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="27" t="s">
+      <c r="G53" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4184,24 +4381,34 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="94.5" customHeight="1">
+    <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
+      <c r="G54" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4218,18 +4425,24 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="16.5" customHeight="1">
+    <row r="55" ht="147.75" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>57</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4248,16 +4461,12 @@
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -4279,209 +4488,181 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="27" t="s">
-        <v>47</v>
+      <c r="A57" s="45"/>
+      <c r="B57" s="48" t="s">
+        <v>58</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="27" t="s">
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c r="A58" s="43"/>
+      <c r="B58" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="C58" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>22</v>
+      <c r="D58" s="50" t="s">
+        <v>52</v>
       </c>
-      <c r="J57" s="27" t="s">
+      <c r="E58" s="45"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="27" t="s">
-        <v>49</v>
+      <c r="J58" s="50" t="s">
+        <v>24</v>
       </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="36" t="s">
-        <v>56</v>
+      <c r="K58" s="50" t="s">
+        <v>52</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" ht="39.75" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="38" t="s">
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c r="A59" s="43"/>
+      <c r="B59" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="38" t="s">
+      <c r="C59" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="38" t="s">
-        <v>25</v>
+      <c r="D59" s="52" t="s">
+        <v>46</v>
       </c>
-      <c r="J59" s="38" t="s">
+      <c r="E59" s="45"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="43"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K59" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-    </row>
-    <row r="61" ht="84.75" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -4504,20 +4685,32 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
-        <v>70</v>
+      <c r="B63" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6" t="s">
-        <v>70</v>
+      <c r="G63" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="H63" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4536,32 +4729,22 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="27" t="s">
-        <v>47</v>
+      <c r="B64" s="55" t="s">
+        <v>62</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>48</v>
+      <c r="C64" s="12" t="s">
+        <v>56</v>
       </c>
-      <c r="D64" s="27" t="s">
-        <v>49</v>
+      <c r="D64" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4578,32 +4761,32 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="42.75" customHeight="1">
+    <row r="65" ht="39.75" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="41" t="s">
-        <v>71</v>
+      <c r="B65" s="56"/>
+      <c r="C65" s="12" t="s">
+        <v>56</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>72</v>
+      <c r="D65" s="40" t="s">
+        <v>64</v>
       </c>
-      <c r="D65" s="43" t="s">
-        <v>73</v>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="57" t="s">
+        <v>65</v>
       </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="45" t="s">
-        <v>74</v>
+      <c r="H65" s="57" t="s">
+        <v>66</v>
       </c>
-      <c r="H65" s="45" t="s">
-        <v>75</v>
+      <c r="I65" s="57" t="s">
+        <v>26</v>
       </c>
-      <c r="I65" s="45" t="s">
-        <v>76</v>
+      <c r="J65" s="57" t="s">
+        <v>67</v>
       </c>
-      <c r="J65" s="45" t="s">
-        <v>77</v>
+      <c r="K65" s="58" t="s">
+        <v>68</v>
       </c>
-      <c r="K65" s="46"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4620,34 +4803,24 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="36.75" customHeight="1">
+    <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="12" t="s">
-        <v>78</v>
+      <c r="B66" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
-      <c r="D66" s="34" t="s">
-        <v>79</v>
+      <c r="D66" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="K66" s="48" t="s">
-        <v>84</v>
-      </c>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4664,24 +4837,32 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
+    <row r="67" ht="84.75" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="12" t="s">
-        <v>85</v>
+      <c r="B67" s="56"/>
+      <c r="C67" s="12" t="s">
+        <v>56</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>57</v>
+      <c r="D67" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
+      <c r="G67" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -4698,34 +4879,18 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="35.25" customHeight="1">
+    <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>87</v>
-      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="K68" s="53" t="s">
-        <v>89</v>
-      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4744,12 +4909,16 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -4772,20 +4941,32 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
-        <v>90</v>
+      <c r="B70" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="C70" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>91</v>
+      <c r="G70" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="H70" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4802,34 +4983,32 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" ht="40.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="27" t="s">
-        <v>47</v>
+      <c r="B71" s="60" t="s">
+        <v>77</v>
       </c>
-      <c r="C71" s="27" t="s">
-        <v>48</v>
+      <c r="C71" s="44" t="s">
+        <v>56</v>
       </c>
-      <c r="D71" s="27" t="s">
-        <v>49</v>
+      <c r="D71" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="27" t="s">
-        <v>50</v>
+      <c r="G71" s="61" t="s">
+        <v>79</v>
       </c>
-      <c r="H71" s="27" t="s">
-        <v>51</v>
+      <c r="H71" s="61" t="s">
+        <v>80</v>
       </c>
-      <c r="I71" s="27" t="s">
-        <v>22</v>
+      <c r="I71" s="61" t="s">
+        <v>81</v>
       </c>
-      <c r="J71" s="27" t="s">
-        <v>23</v>
+      <c r="J71" s="61" t="s">
+        <v>82</v>
       </c>
-      <c r="K71" s="27" t="s">
-        <v>49</v>
-      </c>
+      <c r="K71" s="62"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4846,24 +5025,34 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" ht="16.5" customHeight="1">
+    <row r="72" ht="40.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="54" t="s">
-        <v>92</v>
+      <c r="B72" s="63" t="s">
+        <v>83</v>
       </c>
-      <c r="C72" s="55" t="s">
-        <v>53</v>
+      <c r="C72" s="64" t="s">
+        <v>56</v>
       </c>
-      <c r="D72" s="55" t="s">
-        <v>93</v>
+      <c r="D72" s="65" t="s">
+        <v>84</v>
       </c>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="K72" s="67" t="s">
+        <v>89</v>
+      </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4880,30 +5069,24 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="42.75" customHeight="1">
+    <row r="73" ht="40.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="42" t="s">
-        <v>72</v>
+      <c r="B73" s="68" t="s">
+        <v>90</v>
       </c>
-      <c r="D73" s="43" t="s">
-        <v>94</v>
+      <c r="C73" s="69" t="s">
+        <v>56</v>
       </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="45" t="s">
-        <v>95</v>
+      <c r="D73" s="69" t="s">
+        <v>63</v>
       </c>
-      <c r="H73" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="I73" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="J73" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K73" s="46"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4920,24 +5103,34 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
+    <row r="74" ht="40.5" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="36" t="s">
-        <v>96</v>
+      <c r="B74" s="63" t="s">
+        <v>91</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>53</v>
+      <c r="C74" s="64" t="s">
+        <v>56</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>93</v>
+      <c r="D74" s="65" t="s">
+        <v>92</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
+      <c r="G74" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J74" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="K74" s="74" t="s">
+        <v>94</v>
+      </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4954,32 +5147,18 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" ht="67.5" customHeight="1">
+    <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="J75" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K75" s="60" t="s">
-        <v>102</v>
-      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -4998,22 +5177,20 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="36" t="s">
-        <v>103</v>
+      <c r="B76" s="6" t="s">
+        <v>95</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
+      <c r="G76" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -5030,31 +5207,33 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="112.5" customHeight="1">
+    <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="59" t="s">
-        <v>104</v>
+      <c r="H77" s="32" t="s">
+        <v>54</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="39" t="s">
-        <v>105</v>
+      <c r="I77" s="32" t="s">
+        <v>23</v>
       </c>
-      <c r="H77" s="39" t="s">
-        <v>106</v>
+      <c r="J77" s="32" t="s">
+        <v>24</v>
       </c>
-      <c r="I77" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="J77" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K77" s="60" t="s">
-        <v>109</v>
+      <c r="K77" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5074,22 +5253,22 @@
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="36" t="s">
-        <v>110</v>
+      <c r="B78" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5106,31 +5285,31 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="55.5" customHeight="1">
+    <row r="79" ht="67.5" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="12" t="s">
-        <v>53</v>
+      <c r="B79" s="75"/>
+      <c r="C79" s="76" t="s">
+        <v>60</v>
       </c>
-      <c r="D79" s="59" t="s">
-        <v>111</v>
+      <c r="D79" s="77" t="s">
+        <v>99</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="38" t="s">
-        <v>95</v>
+      <c r="G79" s="58" t="s">
+        <v>100</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>110</v>
+      <c r="H79" s="58" t="s">
+        <v>101</v>
       </c>
-      <c r="I79" s="39" t="s">
-        <v>112</v>
+      <c r="I79" s="58" t="s">
+        <v>102</v>
       </c>
-      <c r="J79" s="39" t="s">
-        <v>83</v>
+      <c r="J79" s="58" t="s">
+        <v>103</v>
       </c>
-      <c r="K79" s="60" t="s">
-        <v>113</v>
+      <c r="K79" s="78" t="s">
+        <v>104</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5150,22 +5329,22 @@
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="36" t="s">
-        <v>114</v>
+      <c r="B80" s="55" t="s">
+        <v>105</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5182,31 +5361,31 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" ht="66.0" customHeight="1">
-      <c r="A81" s="62"/>
-      <c r="B81" s="37"/>
+    <row r="81" ht="112.5" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="56"/>
       <c r="C81" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
-      <c r="D81" s="59" t="s">
-        <v>115</v>
+      <c r="D81" s="77" t="s">
+        <v>106</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="38" t="s">
-        <v>95</v>
+      <c r="G81" s="58" t="s">
+        <v>107</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J81" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I81" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="J81" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K81" s="60" t="s">
-        <v>117</v>
+      <c r="K81" s="78" t="s">
+        <v>111</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5226,22 +5405,22 @@
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="36" t="s">
-        <v>118</v>
+      <c r="B82" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5258,31 +5437,31 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" ht="100.5" customHeight="1">
-      <c r="A83" s="62"/>
-      <c r="B83" s="37"/>
+    <row r="83" ht="55.5" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="75"/>
       <c r="C83" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
-      <c r="D83" s="59" t="s">
-        <v>119</v>
+      <c r="D83" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="39" t="s">
-        <v>120</v>
+      <c r="G83" s="57" t="s">
+        <v>114</v>
       </c>
-      <c r="H83" s="39" t="s">
-        <v>121</v>
+      <c r="H83" s="58" t="s">
+        <v>112</v>
       </c>
-      <c r="I83" s="39" t="s">
-        <v>122</v>
+      <c r="I83" s="58" t="s">
+        <v>115</v>
       </c>
-      <c r="J83" s="39" t="s">
-        <v>123</v>
+      <c r="J83" s="58" t="s">
+        <v>88</v>
       </c>
-      <c r="K83" s="60" t="s">
-        <v>124</v>
+      <c r="K83" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5300,24 +5479,24 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="59.25" customHeight="1">
-      <c r="A84" s="62"/>
-      <c r="B84" s="63" t="s">
-        <v>125</v>
+    <row r="84" ht="16.5" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="55" t="s">
+        <v>117</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
-      <c r="D84" s="34" t="s">
-        <v>126</v>
+      <c r="D84" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5334,18 +5513,32 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+    <row r="85" ht="66.0" customHeight="1">
+      <c r="A85" s="80"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="77" t="s">
+        <v>118</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
+      <c r="G85" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J85" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="K85" s="78" t="s">
+        <v>120</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5364,16 +5557,22 @@
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="B86" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5390,18 +5589,32 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+    <row r="87" ht="100.5" customHeight="1">
+      <c r="A87" s="80"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>122</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="G87" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H87" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="I87" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="J87" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="K87" s="78" t="s">
+        <v>127</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5418,89 +5631,107 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
+    <row r="88" ht="47.25" customHeight="1">
+      <c r="A88" s="43"/>
+      <c r="B88" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="45"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+    </row>
+    <row r="89" ht="51.75" customHeight="1">
+      <c r="A89" s="43"/>
+      <c r="B89" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="45"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="45"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+    </row>
+    <row r="90" ht="51.0" customHeight="1">
+      <c r="A90" s="43"/>
+      <c r="B90" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="45"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="45"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="6"/>
@@ -5782,34 +6013,7 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-    </row>
+    <row r="101" ht="16.5" customHeight="1"/>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
@@ -31122,26 +31326,117 @@
       <c r="Y1005" s="6"/>
       <c r="Z1005" s="6"/>
     </row>
+    <row r="1006" ht="16.5" customHeight="1">
+      <c r="A1006" s="6"/>
+      <c r="B1006" s="6"/>
+      <c r="C1006" s="6"/>
+      <c r="D1006" s="6"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
+      <c r="G1006" s="6"/>
+      <c r="H1006" s="6"/>
+      <c r="I1006" s="6"/>
+      <c r="J1006" s="6"/>
+      <c r="K1006" s="6"/>
+      <c r="L1006" s="6"/>
+      <c r="M1006" s="6"/>
+      <c r="N1006" s="6"/>
+      <c r="O1006" s="6"/>
+      <c r="P1006" s="6"/>
+      <c r="Q1006" s="6"/>
+      <c r="R1006" s="6"/>
+      <c r="S1006" s="6"/>
+      <c r="T1006" s="6"/>
+      <c r="U1006" s="6"/>
+      <c r="V1006" s="6"/>
+      <c r="W1006" s="6"/>
+      <c r="X1006" s="6"/>
+      <c r="Y1006" s="6"/>
+      <c r="Z1006" s="6"/>
+    </row>
+    <row r="1007" ht="16.5" customHeight="1">
+      <c r="A1007" s="6"/>
+      <c r="B1007" s="6"/>
+      <c r="C1007" s="6"/>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
+      <c r="G1007" s="6"/>
+      <c r="H1007" s="6"/>
+      <c r="I1007" s="6"/>
+      <c r="J1007" s="6"/>
+      <c r="K1007" s="6"/>
+      <c r="L1007" s="6"/>
+      <c r="M1007" s="6"/>
+      <c r="N1007" s="6"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="6"/>
+      <c r="R1007" s="6"/>
+      <c r="S1007" s="6"/>
+      <c r="T1007" s="6"/>
+      <c r="U1007" s="6"/>
+      <c r="V1007" s="6"/>
+      <c r="W1007" s="6"/>
+      <c r="X1007" s="6"/>
+      <c r="Y1007" s="6"/>
+      <c r="Z1007" s="6"/>
+    </row>
+    <row r="1008" ht="16.5" customHeight="1">
+      <c r="A1008" s="6"/>
+      <c r="B1008" s="6"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="G1008" s="6"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6"/>
+      <c r="J1008" s="6"/>
+      <c r="K1008" s="6"/>
+      <c r="L1008" s="6"/>
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="6"/>
+      <c r="R1008" s="6"/>
+      <c r="S1008" s="6"/>
+      <c r="T1008" s="6"/>
+      <c r="U1008" s="6"/>
+      <c r="V1008" s="6"/>
+      <c r="W1008" s="6"/>
+      <c r="X1008" s="6"/>
+      <c r="Y1008" s="6"/>
+      <c r="Z1008" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="J59:J60"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B32:H34"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B32:H35"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B72:B73"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31180,13 +31475,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -31220,13 +31515,13 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="11">
         <v>45047.0</v>
       </c>
@@ -31234,9 +31529,9 @@
         <v>9</v>
       </c>
       <c r="L2" s="13">
-        <v>45317.0</v>
+        <v>45322.0</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="6"/>
@@ -31255,179 +31550,657 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="65" t="s">
-        <v>127</v>
+      <c r="B4" s="85" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="D5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>128</v>
+      <c r="D6" s="37" t="s">
+        <v>135</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="68">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89">
         <v>3.0</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>36</v>
+      <c r="C8" s="81" t="s">
+        <v>136</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>37</v>
+      <c r="D8" s="39" t="s">
+        <v>40</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
     </row>
     <row r="9" ht="60.75" customHeight="1">
-      <c r="B9" s="15">
+      <c r="B9" s="18">
         <v>4.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="D9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="40.5" customHeight="1">
-      <c r="B10" s="68">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89">
         <v>5.0</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1"/>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1"/>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1"/>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1"/>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1"/>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="70" t="s">
+      <c r="C10" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="71"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="70" t="s">
+      <c r="D10" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+    </row>
+    <row r="11" ht="37.5" customHeight="1">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="85"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="71"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="69" t="s">
+    </row>
+    <row r="14" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="85" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="69" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="94" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="90"/>
+      <c r="C17" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="90"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="90"/>
+      <c r="C18" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="90"/>
+      <c r="E18" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="90"/>
+      <c r="C19" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="90"/>
+      <c r="C20" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="90"/>
+      <c r="E20" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="90"/>
+      <c r="C21" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="90"/>
+      <c r="C22" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="B23" s="90"/>
+      <c r="C23" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="B24" s="90"/>
+      <c r="C24" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="B25" s="100"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="B26" s="100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1"/>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="B28" s="100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1"/>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="B30" s="100" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="31" ht="18.75" customHeight="1"/>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="70" t="s">
-        <v>141</v>
+      <c r="B32" s="100" t="s">
+        <v>157</v>
       </c>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="70" t="s">
-        <v>142</v>
+    </row>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="B34" s="85" t="s">
+        <v>158</v>
       </c>
-      <c r="C33" s="71"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="B35" s="100" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="90"/>
+      <c r="B37" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="90"/>
+      <c r="B38" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="90"/>
+      <c r="B40" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="90"/>
+      <c r="B41" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="90"/>
+      <c r="B43" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="90"/>
+      <c r="B44" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="90"/>
+      <c r="B46" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="90"/>
+      <c r="B47" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+    </row>
     <row r="48" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
     <row r="50" ht="18.75" customHeight="1"/>
@@ -32366,20 +33139,17 @@
     <row r="983" ht="18.75" customHeight="1"/>
     <row r="984" ht="18.75" customHeight="1"/>
     <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
   </mergeCells>
   <printOptions/>

--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="9FxOch52q4C6Uo1SqyduPqYV0NJvqziDh9zG0riVQto="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="rvgkZPPd4u/tToEBE0Ad7H4hmSDToqu6nolj+5MTt0A="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="164">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -81,7 +81,20 @@
 ・バリデーションチェックの追加と修正</t>
   </si>
   <si>
+    <t>・TOPリンクボタンの削除
+・画面画像の差し替え</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
+  </si>
+  <si>
+    <t>【初期表示】</t>
+  </si>
+  <si>
+    <t>※10件未満のため、ページングが非表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    【エラーが発生時】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
@@ -124,7 +137,7 @@
     <t>１桁</t>
   </si>
   <si>
-    <t>3.【イベント情報】</t>
+    <t>4.【イベント情報】</t>
   </si>
   <si>
     <t>イベント名</t>
@@ -150,8 +163,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">
-検索条件部と番組検索結果を表示する。</t>
+      <t>タレント詳細内容部とタレント検索結果を表示する。</t>
     </r>
   </si>
   <si>
@@ -179,13 +191,7 @@
     <t>ページングの最後に移動する。</t>
   </si>
   <si>
-    <t>TOPリンククリック時</t>
-  </si>
-  <si>
-    <t>リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
-  </si>
-  <si>
-    <t>4.【フォーム情報】</t>
+    <t>5.【フォーム情報】</t>
   </si>
   <si>
     <t>5.【DB情報】</t>
@@ -240,15 +246,6 @@
 　・タレントIDが設定されている場合は、8桁以内であること。
 　→ビジネスルールに詳しく記載。</t>
     </r>
-  </si>
-  <si>
-    <t>（ヘッダー項目）</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>linkbutton</t>
   </si>
   <si>
     <t>（出演者情報）</t>
@@ -417,6 +414,9 @@
     <t>ヘッダー</t>
   </si>
   <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
     <t>番組名にリンクボタンの設定を行う。
 クリック時にキーを渡して、画面遷移する。
 ※番組IDも保持する。</t>
@@ -565,7 +565,7 @@
     <t>最初</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの先頭に移動する。</t>
+    <t>検索結果のグリッドのページングの先頭に移動する。</t>
   </si>
   <si>
     <t>ページングリンク</t>
@@ -577,20 +577,28 @@
     <t>最後</t>
   </si>
   <si>
-    <t>結果結果のグリッドのページングの最後に移動する。</t>
+    <t>検索結果のグリッドのページングの最後に移動する。</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
   </si>
   <si>
-    <t xml:space="preserve">検索条件部と番組検索結果を表示する。
-</t>
-  </si>
-  <si>
-    <t>最初クリック時</t>
-  </si>
-  <si>
-    <t>最後クリック時</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>前画面からの各パラメータに対して、バリデーションチェックを行い、</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>タレント詳細内容部とタレント検索結果を表示する。</t>
+    </r>
   </si>
   <si>
     <t>2. 処理詳細</t>
@@ -659,7 +667,7 @@
     <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.3 最初クリック時</t>
+    <t xml:space="preserve"> 2.3 最初リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-3-1. ページングの先頭に移動する。</t>
@@ -671,16 +679,10 @@
     <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.5 最後クリック時</t>
+    <t xml:space="preserve"> 2.5 最後リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-5-1. ページングの最後に移動する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6 TOPリンククリック時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、画面「メインメニュー画面」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -719,7 +721,7 @@
       <name val="游ゴシック"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -728,7 +730,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -751,8 +753,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -925,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -965,7 +968,7 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -995,11 +998,11 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1012,6 +1015,18 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1031,6 +1046,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1040,55 +1058,25 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1109,19 +1097,22 @@
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1130,10 +1121,10 @@
     <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1169,17 +1160,26 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1190,46 +1190,67 @@
     <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1249,11 +1270,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10201275" cy="5181600"/>
+    <xdr:ext cx="8924925" cy="2847975"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1262,9 +1283,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667997" cy="5414368"/>
+          <a:ext cx="10667999" cy="3398076"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667997" cy="5414368"/>
+          <a:chExt cx="10667999" cy="3398076"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1283,7 +1304,64 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667997" cy="5414368"/>
+            <a:ext cx="10667999" cy="3398076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8858250" cy="2847975"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="10667999" cy="3398076"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="10667999" cy="3398076"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="10667999" cy="3398076"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1580,7 +1658,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45322.0</v>
+        <v>45332.0</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>9</v>
@@ -1664,21 +1742,29 @@
       <c r="B8" s="22">
         <v>4.0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="13">
         <v>45322.0</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+    <row r="9" ht="51.0" customHeight="1">
+      <c r="B9" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45332.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="B10" s="16"/>
@@ -2868,8 +2954,8 @@
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45322.0</v>
+      <c r="L2" s="29">
+        <v>45332.0</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>9</v>
@@ -2919,7 +3005,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2948,13 +3034,19 @@
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -3396,7 +3488,9 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3424,13 +3518,15 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3452,13 +3548,8 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3480,13 +3571,13 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3536,7 +3627,9 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3564,9 +3657,15 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3592,9 +3691,15 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3620,9 +3725,15 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3648,9 +3759,15 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3676,11 +3793,9 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3706,15 +3821,15 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="29" t="s">
-        <v>20</v>
+      <c r="B32" s="39" t="s">
+        <v>36</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3736,8 +3851,17 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3757,15 +3881,19 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" ht="42.0" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3785,11 +3913,15 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1">
+    <row r="35" ht="48.0" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="27"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3813,13 +3945,15 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" ht="38.25" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>21</v>
+      <c r="B36" s="43" t="s">
+        <v>43</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3843,17 +3977,15 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" ht="38.25" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="32" t="s">
-        <v>22</v>
+      <c r="B37" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>23</v>
+      <c r="C37" s="42" t="s">
+        <v>46</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>24</v>
-      </c>
+      <c r="D37" s="27"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3877,17 +4009,15 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" ht="48.0" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="12" t="s">
-        <v>25</v>
+      <c r="B38" s="46" t="s">
+        <v>47</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>26</v>
+      <c r="C38" s="47" t="s">
+        <v>48</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="D38" s="27"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3913,15 +4043,9 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3947,15 +4071,9 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3981,12 +4099,16 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -4010,13 +4132,15 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -4039,20 +4163,32 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="32" t="s">
-        <v>33</v>
+      <c r="B43" s="36" t="s">
+        <v>52</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>34</v>
+      <c r="C43" s="36" t="s">
+        <v>53</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="G43" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -4069,22 +4205,24 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="42.0" customHeight="1">
+    <row r="44" ht="147.75" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
-        <v>35</v>
+      <c r="B44" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>36</v>
+      <c r="C44" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -4101,15 +4239,11 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="48.0" customHeight="1">
+    <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="27"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -4133,18 +4267,18 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="38.25" customHeight="1">
+    <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="38" t="s">
-        <v>39</v>
+      <c r="B46" s="6" t="s">
+        <v>60</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="27"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -4165,22 +4299,34 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="38.25" customHeight="1">
+    <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="40" t="s">
-        <v>41</v>
+      <c r="B47" s="36" t="s">
+        <v>52</v>
       </c>
-      <c r="C47" s="37" t="s">
-        <v>42</v>
+      <c r="C47" s="36" t="s">
+        <v>53</v>
       </c>
-      <c r="D47" s="27"/>
+      <c r="D47" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="G47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>54</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -4197,22 +4343,24 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="48.0" customHeight="1">
+    <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="41" t="s">
-        <v>43</v>
+      <c r="B48" s="50" t="s">
+        <v>61</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>44</v>
+      <c r="C48" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D48" s="27"/>
+      <c r="D48" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -4229,50 +4377,66 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="42.75" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44" t="s">
-        <v>45</v>
+    <row r="49" ht="39.75" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>46</v>
+      <c r="D49" s="45" t="s">
+        <v>63</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -4289,18 +4453,32 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" ht="84.75" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="G51" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -4319,16 +4497,12 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4352,14 +4526,14 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -4383,31 +4557,31 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="32" t="s">
-        <v>50</v>
+      <c r="B54" s="36" t="s">
+        <v>52</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>51</v>
+      <c r="C54" s="36" t="s">
+        <v>53</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>52</v>
+      <c r="D54" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="32" t="s">
-        <v>53</v>
+      <c r="G54" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="32" t="s">
-        <v>52</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -4425,24 +4599,32 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" ht="147.75" customHeight="1">
+    <row r="55" ht="40.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="40" t="s">
-        <v>55</v>
+      <c r="B55" s="55" t="s">
+        <v>76</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>56</v>
+      <c r="C55" s="56" t="s">
+        <v>58</v>
       </c>
-      <c r="D55" s="46" t="s">
-        <v>57</v>
+      <c r="D55" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
+      <c r="G55" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="58"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4459,18 +4641,34 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" ht="16.5" customHeight="1">
+    <row r="56" ht="40.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="B56" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>83</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="G56" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="63" t="s">
+        <v>88</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4487,186 +4685,206 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="48" t="s">
+    <row r="57" ht="40.5" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-      <c r="W57" s="45"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="50" t="s">
-        <v>50</v>
+      <c r="D57" s="65" t="s">
+        <v>62</v>
       </c>
-      <c r="C58" s="50" t="s">
-        <v>51</v>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" ht="40.5" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="59" t="s">
+        <v>90</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="C58" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="50" t="s">
+      <c r="C61" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="D61" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="50" t="s">
-        <v>23</v>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="J58" s="50" t="s">
-        <v>24</v>
+      <c r="H61" s="36" t="s">
+        <v>56</v>
       </c>
-      <c r="K58" s="50" t="s">
-        <v>52</v>
+      <c r="I61" s="36" t="s">
+        <v>27</v>
       </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="45"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="43"/>
-      <c r="B59" s="51" t="s">
-        <v>59</v>
+      <c r="J61" s="36" t="s">
+        <v>28</v>
       </c>
-      <c r="C59" s="51" t="s">
-        <v>60</v>
+      <c r="K61" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="D59" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="45"/>
-      <c r="W59" s="45"/>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
-      <c r="Z59" s="45"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="43"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="45"/>
-      <c r="W60" s="45"/>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="45"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="45"/>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="45"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
-        <v>61</v>
+      <c r="B62" s="50" t="s">
+        <v>96</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4683,33 +4901,31 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" ht="67.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="32" t="s">
-        <v>50</v>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72" t="s">
+        <v>98</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>52</v>
+      <c r="D63" s="73" t="s">
+        <v>99</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="32" t="s">
-        <v>53</v>
+      <c r="G63" s="53" t="s">
+        <v>100</v>
       </c>
-      <c r="H63" s="32" t="s">
-        <v>54</v>
+      <c r="H63" s="53" t="s">
+        <v>101</v>
       </c>
-      <c r="I63" s="32" t="s">
-        <v>23</v>
+      <c r="I63" s="53" t="s">
+        <v>102</v>
       </c>
-      <c r="J63" s="32" t="s">
-        <v>24</v>
+      <c r="J63" s="53" t="s">
+        <v>103</v>
       </c>
-      <c r="K63" s="32" t="s">
-        <v>52</v>
+      <c r="K63" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -4729,22 +4945,22 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="55" t="s">
-        <v>62</v>
+      <c r="B64" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4761,31 +4977,31 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="39.75" customHeight="1">
+    <row r="65" ht="112.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="56"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="D65" s="40" t="s">
-        <v>64</v>
+      <c r="D65" s="73" t="s">
+        <v>106</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="57" t="s">
-        <v>65</v>
+      <c r="G65" s="53" t="s">
+        <v>107</v>
       </c>
-      <c r="H65" s="57" t="s">
-        <v>66</v>
+      <c r="H65" s="53" t="s">
+        <v>108</v>
       </c>
-      <c r="I65" s="57" t="s">
-        <v>26</v>
+      <c r="I65" s="53" t="s">
+        <v>109</v>
       </c>
-      <c r="J65" s="57" t="s">
-        <v>67</v>
+      <c r="J65" s="53" t="s">
+        <v>110</v>
       </c>
-      <c r="K65" s="58" t="s">
-        <v>68</v>
+      <c r="K65" s="74" t="s">
+        <v>111</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -4805,22 +5021,22 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="55" t="s">
-        <v>69</v>
+      <c r="B66" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4837,31 +5053,31 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="84.75" customHeight="1">
+    <row r="67" ht="55.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="56"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="D67" s="40" t="s">
-        <v>70</v>
+      <c r="D67" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="58" t="s">
-        <v>71</v>
+      <c r="G67" s="52" t="s">
+        <v>114</v>
       </c>
-      <c r="H67" s="58" t="s">
-        <v>72</v>
+      <c r="H67" s="53" t="s">
+        <v>112</v>
       </c>
-      <c r="I67" s="58" t="s">
-        <v>73</v>
+      <c r="I67" s="53" t="s">
+        <v>115</v>
       </c>
-      <c r="J67" s="58" t="s">
-        <v>74</v>
+      <c r="J67" s="53" t="s">
+        <v>87</v>
       </c>
-      <c r="K67" s="58" t="s">
-        <v>75</v>
+      <c r="K67" s="74" t="s">
+        <v>116</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -4881,16 +5097,22 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="B68" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4907,22 +5129,32 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
-        <v>76</v>
+    <row r="69" ht="66.0" customHeight="1">
+      <c r="A69" s="76"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="73" t="s">
+        <v>118</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6" t="s">
-        <v>76</v>
+      <c r="G69" s="52" t="s">
+        <v>114</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="H69" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69" s="74" t="s">
+        <v>120</v>
+      </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4941,32 +5173,22 @@
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="32" t="s">
-        <v>50</v>
+      <c r="B70" s="50" t="s">
+        <v>121</v>
       </c>
-      <c r="C70" s="32" t="s">
-        <v>51</v>
+      <c r="C70" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D70" s="32" t="s">
-        <v>52</v>
+      <c r="D70" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H70" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I70" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K70" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4983,32 +5205,32 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="40.5" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="60" t="s">
-        <v>77</v>
+    <row r="71" ht="100.5" customHeight="1">
+      <c r="A71" s="76"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="C71" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>78</v>
+      <c r="D71" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="61" t="s">
-        <v>79</v>
+      <c r="G71" s="53" t="s">
+        <v>123</v>
       </c>
-      <c r="H71" s="61" t="s">
-        <v>80</v>
+      <c r="H71" s="53" t="s">
+        <v>124</v>
       </c>
-      <c r="I71" s="61" t="s">
-        <v>81</v>
+      <c r="I71" s="53" t="s">
+        <v>125</v>
       </c>
-      <c r="J71" s="61" t="s">
-        <v>82</v>
+      <c r="J71" s="53" t="s">
+        <v>126</v>
       </c>
-      <c r="K71" s="62"/>
+      <c r="K71" s="74" t="s">
+        <v>127</v>
+      </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5025,127 +5247,107 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" ht="40.5" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="63" t="s">
-        <v>83</v>
+    <row r="72" ht="47.25" customHeight="1">
+      <c r="A72" s="77"/>
+      <c r="B72" s="78" t="s">
+        <v>128</v>
       </c>
-      <c r="C72" s="64" t="s">
-        <v>56</v>
+      <c r="C72" s="56" t="s">
+        <v>98</v>
       </c>
-      <c r="D72" s="65" t="s">
-        <v>84</v>
+      <c r="D72" s="79" t="s">
+        <v>129</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="57" t="s">
-        <v>85</v>
+      <c r="E72" s="32"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+    </row>
+    <row r="73" ht="51.75" customHeight="1">
+      <c r="A73" s="77"/>
+      <c r="B73" s="81" t="s">
+        <v>130</v>
       </c>
-      <c r="H72" s="66" t="s">
-        <v>86</v>
+      <c r="C73" s="65" t="s">
+        <v>98</v>
       </c>
-      <c r="I72" s="66" t="s">
-        <v>87</v>
+      <c r="D73" s="81" t="s">
+        <v>131</v>
       </c>
-      <c r="J72" s="66" t="s">
-        <v>88</v>
+      <c r="E73" s="32"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="32"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="32"/>
+      <c r="Z73" s="32"/>
+    </row>
+    <row r="74" ht="51.0" customHeight="1">
+      <c r="A74" s="77"/>
+      <c r="B74" s="61" t="s">
+        <v>132</v>
       </c>
-      <c r="K72" s="67" t="s">
-        <v>89</v>
+      <c r="C74" s="60" t="s">
+        <v>98</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" ht="40.5" customHeight="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="68" t="s">
-        <v>90</v>
+      <c r="D74" s="83" t="s">
+        <v>133</v>
       </c>
-      <c r="C73" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" ht="40.5" customHeight="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="I74" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="J74" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="K74" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
@@ -5177,16 +5379,12 @@
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -5209,32 +5407,16 @@
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I77" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -5253,22 +5435,16 @@
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -5285,32 +5461,18 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="67.5" customHeight="1">
+    <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="77" t="s">
-        <v>99</v>
-      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="I79" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="J79" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="K79" s="78" t="s">
-        <v>104</v>
-      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5329,22 +5491,16 @@
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="6"/>
-      <c r="B80" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5361,32 +5517,18 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" ht="112.5" customHeight="1">
+    <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="79"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="I81" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="J81" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K81" s="78" t="s">
-        <v>111</v>
-      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5405,22 +5547,16 @@
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5437,32 +5573,18 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" ht="55.5" customHeight="1">
+    <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="77" t="s">
-        <v>113</v>
-      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="J83" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="K83" s="78" t="s">
-        <v>116</v>
-      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5481,22 +5603,16 @@
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5513,66 +5629,19 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="66.0" customHeight="1">
-      <c r="A85" s="80"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H85" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="I85" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="J85" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="K85" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-    </row>
+    <row r="85" ht="16.5" customHeight="1"/>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5589,32 +5658,18 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="100.5" customHeight="1">
-      <c r="A87" s="80"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="77" t="s">
-        <v>122</v>
-      </c>
+    <row r="87" ht="16.5" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="H87" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="I87" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="J87" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="K87" s="78" t="s">
-        <v>127</v>
-      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5631,107 +5686,89 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" ht="47.25" customHeight="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="82"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
-      <c r="Q88" s="45"/>
-      <c r="R88" s="45"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="45"/>
-      <c r="U88" s="45"/>
-      <c r="V88" s="45"/>
-      <c r="W88" s="45"/>
-      <c r="X88" s="45"/>
-      <c r="Y88" s="45"/>
-      <c r="Z88" s="45"/>
-    </row>
-    <row r="89" ht="51.75" customHeight="1">
-      <c r="A89" s="43"/>
-      <c r="B89" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="45"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
-      <c r="Q89" s="45"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45"/>
-      <c r="V89" s="45"/>
-      <c r="W89" s="45"/>
-      <c r="X89" s="45"/>
-      <c r="Y89" s="45"/>
-      <c r="Z89" s="45"/>
-    </row>
-    <row r="90" ht="51.0" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="45"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="84"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="84"/>
-      <c r="J90" s="84"/>
-      <c r="K90" s="84"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
-      <c r="Q90" s="45"/>
-      <c r="R90" s="45"/>
-      <c r="S90" s="45"/>
-      <c r="T90" s="45"/>
-      <c r="U90" s="45"/>
-      <c r="V90" s="45"/>
-      <c r="W90" s="45"/>
-      <c r="X90" s="45"/>
-      <c r="Y90" s="45"/>
-      <c r="Z90" s="45"/>
+    <row r="88" ht="16.5" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="6"/>
@@ -6013,7 +6050,34 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+    </row>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
@@ -30962,481 +31026,25 @@
       <c r="Y992" s="6"/>
       <c r="Z992" s="6"/>
     </row>
-    <row r="993" ht="16.5" customHeight="1">
-      <c r="A993" s="6"/>
-      <c r="B993" s="6"/>
-      <c r="C993" s="6"/>
-      <c r="D993" s="6"/>
-      <c r="E993" s="6"/>
-      <c r="F993" s="6"/>
-      <c r="G993" s="6"/>
-      <c r="H993" s="6"/>
-      <c r="I993" s="6"/>
-      <c r="J993" s="6"/>
-      <c r="K993" s="6"/>
-      <c r="L993" s="6"/>
-      <c r="M993" s="6"/>
-      <c r="N993" s="6"/>
-      <c r="O993" s="6"/>
-      <c r="P993" s="6"/>
-      <c r="Q993" s="6"/>
-      <c r="R993" s="6"/>
-      <c r="S993" s="6"/>
-      <c r="T993" s="6"/>
-      <c r="U993" s="6"/>
-      <c r="V993" s="6"/>
-      <c r="W993" s="6"/>
-      <c r="X993" s="6"/>
-      <c r="Y993" s="6"/>
-      <c r="Z993" s="6"/>
-    </row>
-    <row r="994" ht="16.5" customHeight="1">
-      <c r="A994" s="6"/>
-      <c r="B994" s="6"/>
-      <c r="C994" s="6"/>
-      <c r="D994" s="6"/>
-      <c r="E994" s="6"/>
-      <c r="F994" s="6"/>
-      <c r="G994" s="6"/>
-      <c r="H994" s="6"/>
-      <c r="I994" s="6"/>
-      <c r="J994" s="6"/>
-      <c r="K994" s="6"/>
-      <c r="L994" s="6"/>
-      <c r="M994" s="6"/>
-      <c r="N994" s="6"/>
-      <c r="O994" s="6"/>
-      <c r="P994" s="6"/>
-      <c r="Q994" s="6"/>
-      <c r="R994" s="6"/>
-      <c r="S994" s="6"/>
-      <c r="T994" s="6"/>
-      <c r="U994" s="6"/>
-      <c r="V994" s="6"/>
-      <c r="W994" s="6"/>
-      <c r="X994" s="6"/>
-      <c r="Y994" s="6"/>
-      <c r="Z994" s="6"/>
-    </row>
-    <row r="995" ht="16.5" customHeight="1">
-      <c r="A995" s="6"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-      <c r="D995" s="6"/>
-      <c r="E995" s="6"/>
-      <c r="F995" s="6"/>
-      <c r="G995" s="6"/>
-      <c r="H995" s="6"/>
-      <c r="I995" s="6"/>
-      <c r="J995" s="6"/>
-      <c r="K995" s="6"/>
-      <c r="L995" s="6"/>
-      <c r="M995" s="6"/>
-      <c r="N995" s="6"/>
-      <c r="O995" s="6"/>
-      <c r="P995" s="6"/>
-      <c r="Q995" s="6"/>
-      <c r="R995" s="6"/>
-      <c r="S995" s="6"/>
-      <c r="T995" s="6"/>
-      <c r="U995" s="6"/>
-      <c r="V995" s="6"/>
-      <c r="W995" s="6"/>
-      <c r="X995" s="6"/>
-      <c r="Y995" s="6"/>
-      <c r="Z995" s="6"/>
-    </row>
-    <row r="996" ht="16.5" customHeight="1">
-      <c r="A996" s="6"/>
-      <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
-      <c r="D996" s="6"/>
-      <c r="E996" s="6"/>
-      <c r="F996" s="6"/>
-      <c r="G996" s="6"/>
-      <c r="H996" s="6"/>
-      <c r="I996" s="6"/>
-      <c r="J996" s="6"/>
-      <c r="K996" s="6"/>
-      <c r="L996" s="6"/>
-      <c r="M996" s="6"/>
-      <c r="N996" s="6"/>
-      <c r="O996" s="6"/>
-      <c r="P996" s="6"/>
-      <c r="Q996" s="6"/>
-      <c r="R996" s="6"/>
-      <c r="S996" s="6"/>
-      <c r="T996" s="6"/>
-      <c r="U996" s="6"/>
-      <c r="V996" s="6"/>
-      <c r="W996" s="6"/>
-      <c r="X996" s="6"/>
-      <c r="Y996" s="6"/>
-      <c r="Z996" s="6"/>
-    </row>
-    <row r="997" ht="16.5" customHeight="1">
-      <c r="A997" s="6"/>
-      <c r="B997" s="6"/>
-      <c r="C997" s="6"/>
-      <c r="D997" s="6"/>
-      <c r="E997" s="6"/>
-      <c r="F997" s="6"/>
-      <c r="G997" s="6"/>
-      <c r="H997" s="6"/>
-      <c r="I997" s="6"/>
-      <c r="J997" s="6"/>
-      <c r="K997" s="6"/>
-      <c r="L997" s="6"/>
-      <c r="M997" s="6"/>
-      <c r="N997" s="6"/>
-      <c r="O997" s="6"/>
-      <c r="P997" s="6"/>
-      <c r="Q997" s="6"/>
-      <c r="R997" s="6"/>
-      <c r="S997" s="6"/>
-      <c r="T997" s="6"/>
-      <c r="U997" s="6"/>
-      <c r="V997" s="6"/>
-      <c r="W997" s="6"/>
-      <c r="X997" s="6"/>
-      <c r="Y997" s="6"/>
-      <c r="Z997" s="6"/>
-    </row>
-    <row r="998" ht="16.5" customHeight="1">
-      <c r="A998" s="6"/>
-      <c r="B998" s="6"/>
-      <c r="C998" s="6"/>
-      <c r="D998" s="6"/>
-      <c r="E998" s="6"/>
-      <c r="F998" s="6"/>
-      <c r="G998" s="6"/>
-      <c r="H998" s="6"/>
-      <c r="I998" s="6"/>
-      <c r="J998" s="6"/>
-      <c r="K998" s="6"/>
-      <c r="L998" s="6"/>
-      <c r="M998" s="6"/>
-      <c r="N998" s="6"/>
-      <c r="O998" s="6"/>
-      <c r="P998" s="6"/>
-      <c r="Q998" s="6"/>
-      <c r="R998" s="6"/>
-      <c r="S998" s="6"/>
-      <c r="T998" s="6"/>
-      <c r="U998" s="6"/>
-      <c r="V998" s="6"/>
-      <c r="W998" s="6"/>
-      <c r="X998" s="6"/>
-      <c r="Y998" s="6"/>
-      <c r="Z998" s="6"/>
-    </row>
-    <row r="999" ht="16.5" customHeight="1">
-      <c r="A999" s="6"/>
-      <c r="B999" s="6"/>
-      <c r="C999" s="6"/>
-      <c r="D999" s="6"/>
-      <c r="E999" s="6"/>
-      <c r="F999" s="6"/>
-      <c r="G999" s="6"/>
-      <c r="H999" s="6"/>
-      <c r="I999" s="6"/>
-      <c r="J999" s="6"/>
-      <c r="K999" s="6"/>
-      <c r="L999" s="6"/>
-      <c r="M999" s="6"/>
-      <c r="N999" s="6"/>
-      <c r="O999" s="6"/>
-      <c r="P999" s="6"/>
-      <c r="Q999" s="6"/>
-      <c r="R999" s="6"/>
-      <c r="S999" s="6"/>
-      <c r="T999" s="6"/>
-      <c r="U999" s="6"/>
-      <c r="V999" s="6"/>
-      <c r="W999" s="6"/>
-      <c r="X999" s="6"/>
-      <c r="Y999" s="6"/>
-      <c r="Z999" s="6"/>
-    </row>
-    <row r="1000" ht="16.5" customHeight="1">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="6"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="6"/>
-      <c r="H1000" s="6"/>
-      <c r="I1000" s="6"/>
-      <c r="J1000" s="6"/>
-      <c r="K1000" s="6"/>
-      <c r="L1000" s="6"/>
-      <c r="M1000" s="6"/>
-      <c r="N1000" s="6"/>
-      <c r="O1000" s="6"/>
-      <c r="P1000" s="6"/>
-      <c r="Q1000" s="6"/>
-      <c r="R1000" s="6"/>
-      <c r="S1000" s="6"/>
-      <c r="T1000" s="6"/>
-      <c r="U1000" s="6"/>
-      <c r="V1000" s="6"/>
-      <c r="W1000" s="6"/>
-      <c r="X1000" s="6"/>
-      <c r="Y1000" s="6"/>
-      <c r="Z1000" s="6"/>
-    </row>
-    <row r="1001" ht="16.5" customHeight="1">
-      <c r="A1001" s="6"/>
-      <c r="B1001" s="6"/>
-      <c r="C1001" s="6"/>
-      <c r="D1001" s="6"/>
-      <c r="E1001" s="6"/>
-      <c r="F1001" s="6"/>
-      <c r="G1001" s="6"/>
-      <c r="H1001" s="6"/>
-      <c r="I1001" s="6"/>
-      <c r="J1001" s="6"/>
-      <c r="K1001" s="6"/>
-      <c r="L1001" s="6"/>
-      <c r="M1001" s="6"/>
-      <c r="N1001" s="6"/>
-      <c r="O1001" s="6"/>
-      <c r="P1001" s="6"/>
-      <c r="Q1001" s="6"/>
-      <c r="R1001" s="6"/>
-      <c r="S1001" s="6"/>
-      <c r="T1001" s="6"/>
-      <c r="U1001" s="6"/>
-      <c r="V1001" s="6"/>
-      <c r="W1001" s="6"/>
-      <c r="X1001" s="6"/>
-      <c r="Y1001" s="6"/>
-      <c r="Z1001" s="6"/>
-    </row>
-    <row r="1002" ht="16.5" customHeight="1">
-      <c r="A1002" s="6"/>
-      <c r="B1002" s="6"/>
-      <c r="C1002" s="6"/>
-      <c r="D1002" s="6"/>
-      <c r="E1002" s="6"/>
-      <c r="F1002" s="6"/>
-      <c r="G1002" s="6"/>
-      <c r="H1002" s="6"/>
-      <c r="I1002" s="6"/>
-      <c r="J1002" s="6"/>
-      <c r="K1002" s="6"/>
-      <c r="L1002" s="6"/>
-      <c r="M1002" s="6"/>
-      <c r="N1002" s="6"/>
-      <c r="O1002" s="6"/>
-      <c r="P1002" s="6"/>
-      <c r="Q1002" s="6"/>
-      <c r="R1002" s="6"/>
-      <c r="S1002" s="6"/>
-      <c r="T1002" s="6"/>
-      <c r="U1002" s="6"/>
-      <c r="V1002" s="6"/>
-      <c r="W1002" s="6"/>
-      <c r="X1002" s="6"/>
-      <c r="Y1002" s="6"/>
-      <c r="Z1002" s="6"/>
-    </row>
-    <row r="1003" ht="16.5" customHeight="1">
-      <c r="A1003" s="6"/>
-      <c r="B1003" s="6"/>
-      <c r="C1003" s="6"/>
-      <c r="D1003" s="6"/>
-      <c r="E1003" s="6"/>
-      <c r="F1003" s="6"/>
-      <c r="G1003" s="6"/>
-      <c r="H1003" s="6"/>
-      <c r="I1003" s="6"/>
-      <c r="J1003" s="6"/>
-      <c r="K1003" s="6"/>
-      <c r="L1003" s="6"/>
-      <c r="M1003" s="6"/>
-      <c r="N1003" s="6"/>
-      <c r="O1003" s="6"/>
-      <c r="P1003" s="6"/>
-      <c r="Q1003" s="6"/>
-      <c r="R1003" s="6"/>
-      <c r="S1003" s="6"/>
-      <c r="T1003" s="6"/>
-      <c r="U1003" s="6"/>
-      <c r="V1003" s="6"/>
-      <c r="W1003" s="6"/>
-      <c r="X1003" s="6"/>
-      <c r="Y1003" s="6"/>
-      <c r="Z1003" s="6"/>
-    </row>
-    <row r="1004" ht="16.5" customHeight="1">
-      <c r="A1004" s="6"/>
-      <c r="B1004" s="6"/>
-      <c r="C1004" s="6"/>
-      <c r="D1004" s="6"/>
-      <c r="E1004" s="6"/>
-      <c r="F1004" s="6"/>
-      <c r="G1004" s="6"/>
-      <c r="H1004" s="6"/>
-      <c r="I1004" s="6"/>
-      <c r="J1004" s="6"/>
-      <c r="K1004" s="6"/>
-      <c r="L1004" s="6"/>
-      <c r="M1004" s="6"/>
-      <c r="N1004" s="6"/>
-      <c r="O1004" s="6"/>
-      <c r="P1004" s="6"/>
-      <c r="Q1004" s="6"/>
-      <c r="R1004" s="6"/>
-      <c r="S1004" s="6"/>
-      <c r="T1004" s="6"/>
-      <c r="U1004" s="6"/>
-      <c r="V1004" s="6"/>
-      <c r="W1004" s="6"/>
-      <c r="X1004" s="6"/>
-      <c r="Y1004" s="6"/>
-      <c r="Z1004" s="6"/>
-    </row>
-    <row r="1005" ht="16.5" customHeight="1">
-      <c r="A1005" s="6"/>
-      <c r="B1005" s="6"/>
-      <c r="C1005" s="6"/>
-      <c r="D1005" s="6"/>
-      <c r="E1005" s="6"/>
-      <c r="F1005" s="6"/>
-      <c r="G1005" s="6"/>
-      <c r="H1005" s="6"/>
-      <c r="I1005" s="6"/>
-      <c r="J1005" s="6"/>
-      <c r="K1005" s="6"/>
-      <c r="L1005" s="6"/>
-      <c r="M1005" s="6"/>
-      <c r="N1005" s="6"/>
-      <c r="O1005" s="6"/>
-      <c r="P1005" s="6"/>
-      <c r="Q1005" s="6"/>
-      <c r="R1005" s="6"/>
-      <c r="S1005" s="6"/>
-      <c r="T1005" s="6"/>
-      <c r="U1005" s="6"/>
-      <c r="V1005" s="6"/>
-      <c r="W1005" s="6"/>
-      <c r="X1005" s="6"/>
-      <c r="Y1005" s="6"/>
-      <c r="Z1005" s="6"/>
-    </row>
-    <row r="1006" ht="16.5" customHeight="1">
-      <c r="A1006" s="6"/>
-      <c r="B1006" s="6"/>
-      <c r="C1006" s="6"/>
-      <c r="D1006" s="6"/>
-      <c r="E1006" s="6"/>
-      <c r="F1006" s="6"/>
-      <c r="G1006" s="6"/>
-      <c r="H1006" s="6"/>
-      <c r="I1006" s="6"/>
-      <c r="J1006" s="6"/>
-      <c r="K1006" s="6"/>
-      <c r="L1006" s="6"/>
-      <c r="M1006" s="6"/>
-      <c r="N1006" s="6"/>
-      <c r="O1006" s="6"/>
-      <c r="P1006" s="6"/>
-      <c r="Q1006" s="6"/>
-      <c r="R1006" s="6"/>
-      <c r="S1006" s="6"/>
-      <c r="T1006" s="6"/>
-      <c r="U1006" s="6"/>
-      <c r="V1006" s="6"/>
-      <c r="W1006" s="6"/>
-      <c r="X1006" s="6"/>
-      <c r="Y1006" s="6"/>
-      <c r="Z1006" s="6"/>
-    </row>
-    <row r="1007" ht="16.5" customHeight="1">
-      <c r="A1007" s="6"/>
-      <c r="B1007" s="6"/>
-      <c r="C1007" s="6"/>
-      <c r="D1007" s="6"/>
-      <c r="E1007" s="6"/>
-      <c r="F1007" s="6"/>
-      <c r="G1007" s="6"/>
-      <c r="H1007" s="6"/>
-      <c r="I1007" s="6"/>
-      <c r="J1007" s="6"/>
-      <c r="K1007" s="6"/>
-      <c r="L1007" s="6"/>
-      <c r="M1007" s="6"/>
-      <c r="N1007" s="6"/>
-      <c r="O1007" s="6"/>
-      <c r="P1007" s="6"/>
-      <c r="Q1007" s="6"/>
-      <c r="R1007" s="6"/>
-      <c r="S1007" s="6"/>
-      <c r="T1007" s="6"/>
-      <c r="U1007" s="6"/>
-      <c r="V1007" s="6"/>
-      <c r="W1007" s="6"/>
-      <c r="X1007" s="6"/>
-      <c r="Y1007" s="6"/>
-      <c r="Z1007" s="6"/>
-    </row>
-    <row r="1008" ht="16.5" customHeight="1">
-      <c r="A1008" s="6"/>
-      <c r="B1008" s="6"/>
-      <c r="C1008" s="6"/>
-      <c r="D1008" s="6"/>
-      <c r="E1008" s="6"/>
-      <c r="F1008" s="6"/>
-      <c r="G1008" s="6"/>
-      <c r="H1008" s="6"/>
-      <c r="I1008" s="6"/>
-      <c r="J1008" s="6"/>
-      <c r="K1008" s="6"/>
-      <c r="L1008" s="6"/>
-      <c r="M1008" s="6"/>
-      <c r="N1008" s="6"/>
-      <c r="O1008" s="6"/>
-      <c r="P1008" s="6"/>
-      <c r="Q1008" s="6"/>
-      <c r="R1008" s="6"/>
-      <c r="S1008" s="6"/>
-      <c r="T1008" s="6"/>
-      <c r="U1008" s="6"/>
-      <c r="V1008" s="6"/>
-      <c r="W1008" s="6"/>
-      <c r="X1008" s="6"/>
-      <c r="Y1008" s="6"/>
-      <c r="Z1008" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="J59:J60"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B32:H34"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B22:H24"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B66:B67"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="B78:B79"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31528,8 +31136,8 @@
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45322.0</v>
+      <c r="L2" s="29">
+        <v>45332.0</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>9</v>
@@ -31550,657 +31158,880 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>33</v>
+      <c r="C5" s="85" t="s">
+        <v>37</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>34</v>
+      <c r="D5" s="86" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="27"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="16">
+      <c r="B6" s="87">
         <v>1.0</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
+      <c r="C6" s="87" t="s">
+        <v>39</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="88" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="27"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="16">
+      <c r="B7" s="87">
         <v>2.0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
+      <c r="C7" s="87" t="s">
+        <v>41</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>38</v>
+      <c r="D7" s="90" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="27"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89">
+      <c r="A8" s="91"/>
+      <c r="B8" s="92">
         <v>3.0</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+    </row>
+    <row r="9" ht="60.75" customHeight="1">
+      <c r="B9" s="96">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+    </row>
+    <row r="10" ht="40.5" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="92">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-    </row>
-    <row r="9" ht="60.75" customHeight="1">
-      <c r="B9" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" ht="40.5" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="91" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="100"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-    </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89">
-        <v>6.0</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="85"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="85" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="100"/>
+      <c r="B15" s="102" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1"/>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="85" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="100"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="103" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104" t="s">
         <v>140</v>
       </c>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="95" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96" t="s">
+      <c r="D17" s="89"/>
+      <c r="E17" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="90"/>
-      <c r="C18" s="97" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="96" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="100"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="97" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="90"/>
-      <c r="C20" s="98" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="96" t="s">
+      <c r="D20" s="89"/>
+      <c r="E20" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="C21" s="97" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="96" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="95" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="100"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="99" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="100"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="96" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="100"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="100"/>
+      <c r="B26" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="90"/>
-      <c r="C24" s="99" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="100"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="100"/>
+      <c r="B28" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="100"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="100" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="100"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="100"/>
+      <c r="B30" s="106" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="100" t="s">
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="100"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="100"/>
+      <c r="B32" s="106" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="100"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="100"/>
+      <c r="B34" s="101" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="100" t="s">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="100"/>
+      <c r="B35" s="106" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="85" t="s">
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="95"/>
+      <c r="B37" s="103" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="100" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="95"/>
+      <c r="B38" s="103" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="99" t="s">
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="95"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="95"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="95"/>
+      <c r="B40" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="99" t="s">
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="95"/>
+      <c r="B41" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
-      <c r="Z39" s="90"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="90"/>
-      <c r="B40" s="101" t="s">
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="95"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="95"/>
+      <c r="B43" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="90"/>
-      <c r="B41" s="101" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="95"/>
+      <c r="B44" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="90"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="90"/>
-      <c r="B43" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="90"/>
-      <c r="B44" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="90"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="90"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="90"/>
-      <c r="B46" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="90"/>
-    </row>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="90"/>
-      <c r="B47" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
-      <c r="V47" s="90"/>
-      <c r="W47" s="90"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="90"/>
-      <c r="Z47" s="90"/>
-    </row>
+      <c r="A45" s="95"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
     <row r="48" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
     <row r="50" ht="18.75" customHeight="1"/>
@@ -33136,21 +32967,17 @@
     <row r="980" ht="18.75" customHeight="1"/>
     <row r="981" ht="18.75" customHeight="1"/>
     <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
+++ b/doc/2023年下期/【修正版】2023年上期/【画面設計】タレント詳細画面（TalentDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="rvgkZPPd4u/tToEBE0Ad7H4hmSDToqu6nolj+5MTt0A="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="L9eqGkn5/aIt0nJ4/1N0vWCFH28qMBuNpHv2VqO9YDo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -82,7 +82,8 @@
   </si>
   <si>
     <t>・TOPリンクボタンの削除
-・画面画像の差し替え</t>
+・画面画像の差し替え
+・オンエア日時の列を修正</t>
   </si>
   <si>
     <t>1.【画面イメージ】</t>
@@ -94,14 +95,14 @@
     <t>※10件未満のため、ページングが非表示</t>
   </si>
   <si>
-    <t xml:space="preserve">    【エラーが発生時】</t>
+    <t xml:space="preserve">      【エラーが発生時】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
   </si>
   <si>
     <t>・前の画面より受け取ったパラメータを元に、オンエア管理テーブルを元に、対象週とタレントで検索を行い、検索結果を表示する。
-・番組のリンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
+・出演番組リンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -167,10 +168,10 @@
     </r>
   </si>
   <si>
-    <t>番組名クリック時</t>
+    <t>出演番組リンククリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
   </si>
   <si>
     <t>最初リンククリック時</t>
@@ -194,7 +195,7 @@
     <t>5.【フォーム情報】</t>
   </si>
   <si>
-    <t>5.【DB情報】</t>
+    <t>6.【DB情報】</t>
   </si>
   <si>
     <t>（バリデーションチェックのエラー表示部）</t>
@@ -417,8 +418,7 @@
     <t>linkbutton</t>
   </si>
   <si>
-    <t>番組名にリンクボタンの設定を行う。
-クリック時にキーを渡して、画面遷移する。
+    <t>出演番組にリンクボタンをクリック時に、番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。	
 ※番組IDも保持する。</t>
   </si>
   <si>
@@ -494,31 +494,25 @@
     <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、番組IDを取得して、番組マスタ.番組IDと紐づけて、チャンネルIDを取得して、チャンネル局マスタ.チャンネルIDと紐づけて、チャンネル局IDを取得して、区分ジャンルマスタ.ジャンルID＝３（固定）、区分ジャンルマスタ.順序と紐づけて、区分ジャンルマスタ.ジャンル名を放送局（チャンネル）として表示する。</t>
   </si>
   <si>
-    <t>オンエア日</t>
+    <t>オンエア日時</t>
   </si>
   <si>
-    <t>対象の出演者が対象週に出演する番組名のオンエア日の日付のみを表示する。</t>
+    <t>対象の出演者が対象週に出演する番組名のオンエア日を表示する。</t>
   </si>
   <si>
     <t>オンエア管理テーブル</t>
   </si>
   <si>
+    <t>オンエア日</t>
+  </si>
+  <si>
     <t>日付型</t>
   </si>
   <si>
-    <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、オンエア管理テーブル.オンエア日をYYYY/MM/DDとして表示する。</t>
+    <t>YYYY/MM/DD HH:SS</t>
   </si>
   <si>
-    <t>放送時間</t>
-  </si>
-  <si>
-    <t>対象の出演者が対象週に出演する番組名のオンエア日の時間のみを表示する。</t>
-  </si>
-  <si>
-    <t>HH:SS</t>
-  </si>
-  <si>
-    <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、オンエア管理テーブル.オンエア日を HH:SSとして表示する。</t>
+    <t>オンエア管理テーブルより、パラメータ.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、オンエア管理テーブル.オンエア日をYYYY/MM/DD HH:SSとして表示する。</t>
   </si>
   <si>
     <t>番組ジャンル</t>
@@ -585,17 +579,17 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="游ゴシック"/>
         <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <sz val="10.0"/>
       </rPr>
       <t>前画面からの各パラメータに対して、バリデーションチェックを行い、</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="游ゴシック"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="10.0"/>
       </rPr>
       <t>タレント詳細内容部とタレント検索結果を表示する。</t>
     </r>
@@ -661,7 +655,7 @@
     <t xml:space="preserve">　　2-1-5.【2-1-2】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2 番組名クリック時</t>
+    <t xml:space="preserve"> 2.2 出演番組リンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-1.番組ID、オンエア日、年月、週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」」へ遷移する。</t>
@@ -692,7 +686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -753,9 +747,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -928,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1028,6 +1028,9 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,9 +1058,6 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1066,6 +1066,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1149,13 +1152,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1190,68 +1205,44 @@
     <xf borderId="9" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,12 +1260,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8924925" cy="2847975"/>
+    <xdr:ext cx="9467850" cy="2667000"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1283,9 +1274,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667999" cy="3398076"/>
+          <a:ext cx="9448802" cy="2649310"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667999" cy="3398076"/>
+          <a:chExt cx="9448802" cy="2649310"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1304,7 +1295,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667999" cy="3398076"/>
+            <a:ext cx="9448802" cy="2649310"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1326,12 +1317,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8858250" cy="2847975"/>
+    <xdr:ext cx="9525000" cy="2667000"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -1340,9 +1331,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10667999" cy="3398076"/>
+          <a:ext cx="9448802" cy="2649310"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10667999" cy="3398076"/>
+          <a:chExt cx="9448802" cy="2649310"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1361,7 +1352,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10667999" cy="3398076"/>
+            <a:ext cx="9448802" cy="2649310"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1762,7 +1753,7 @@
       <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2879,9 +2870,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
+    <col customWidth="1" min="2" max="2" width="25.86"/>
     <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="4" width="58.29"/>
+    <col customWidth="1" min="4" max="4" width="60.43"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>
     <col customWidth="1" min="7" max="7" width="21.29"/>
     <col customWidth="1" min="8" max="8" width="43.57"/>
@@ -3044,7 +3035,7 @@
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="6"/>
@@ -3460,7 +3451,9 @@
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3488,15 +3481,15 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
+      <c r="B21" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3518,15 +3511,8 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="35"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3548,8 +3534,13 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3571,13 +3562,13 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3599,7 +3590,9 @@
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -3627,11 +3620,15 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
+      <c r="B26" s="37" t="s">
+        <v>26</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3657,14 +3654,14 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="36" t="s">
-        <v>26</v>
+      <c r="B27" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>27</v>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>28</v>
+      <c r="D27" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -3691,14 +3688,14 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="12" t="s">
-        <v>29</v>
+      <c r="B28" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3725,14 +3722,14 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="37" t="s">
-        <v>32</v>
+      <c r="B29" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -3759,15 +3756,9 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3793,9 +3784,11 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -3821,11 +3814,13 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="39" t="s">
-        <v>36</v>
+      <c r="B32" s="37" t="s">
+        <v>37</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3849,13 +3844,13 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" ht="41.25" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="36" t="s">
-        <v>37</v>
+      <c r="B33" s="12" t="s">
+        <v>39</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>38</v>
+      <c r="C33" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="6"/>
@@ -3881,13 +3876,13 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" ht="42.0" customHeight="1">
+    <row r="34" ht="35.25" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="12" t="s">
-        <v>39</v>
+      <c r="B34" s="38" t="s">
+        <v>41</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>40</v>
+      <c r="C34" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="6"/>
@@ -3913,13 +3908,13 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="48.0" customHeight="1">
+    <row r="35" ht="26.25" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="12" t="s">
-        <v>41</v>
+      <c r="B35" s="43" t="s">
+        <v>43</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>42</v>
+      <c r="C35" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="6"/>
@@ -3945,13 +3940,13 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="38.25" customHeight="1">
+    <row r="36" ht="24.0" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="43" t="s">
-        <v>43</v>
+      <c r="B36" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="C36" s="44" t="s">
-        <v>44</v>
+      <c r="C36" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="6"/>
@@ -3977,13 +3972,13 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="38.25" customHeight="1">
+    <row r="37" ht="27.75" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="45" t="s">
-        <v>45</v>
+      <c r="B37" s="47" t="s">
+        <v>47</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>46</v>
+      <c r="C37" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="6"/>
@@ -4009,15 +4004,11 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="48.0" customHeight="1">
+    <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="27"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4071,12 +4062,16 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -4099,15 +4094,15 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="39" t="s">
-        <v>49</v>
+      <c r="B41" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -4131,20 +4126,32 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>51</v>
+      <c r="B42" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>51</v>
+      <c r="G42" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="H42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -4161,34 +4168,24 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" ht="147.75" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="36" t="s">
-        <v>52</v>
+      <c r="B43" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>53</v>
+      <c r="C43" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>54</v>
+      <c r="D43" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>54</v>
-      </c>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -4205,24 +4202,18 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="147.75" customHeight="1">
+    <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>59</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -4241,12 +4232,16 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4269,20 +4264,32 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>60</v>
+      <c r="B46" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>60</v>
+      <c r="G46" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="H46" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -4301,32 +4308,22 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="36" t="s">
-        <v>52</v>
+      <c r="B47" s="51" t="s">
+        <v>61</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>53</v>
+      <c r="C47" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>54</v>
+      <c r="D47" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>54</v>
-      </c>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -4343,24 +4340,32 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" ht="16.5" customHeight="1">
+    <row r="48" ht="39.75" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="50" t="s">
-        <v>61</v>
-      </c>
+      <c r="B48" s="52"/>
       <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>62</v>
+      <c r="D48" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
+      <c r="G48" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>67</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -4377,32 +4382,24 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="39.75" customHeight="1">
+    <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="51"/>
+      <c r="B49" s="51" t="s">
+        <v>68</v>
+      </c>
       <c r="C49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="45" t="s">
-        <v>63</v>
+      <c r="D49" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" s="53" t="s">
-        <v>67</v>
-      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -4419,24 +4416,32 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
+    <row r="50" ht="84.75" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="50" t="s">
-        <v>68</v>
-      </c>
+      <c r="B50" s="52"/>
       <c r="C50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>62</v>
+      <c r="D50" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
+      <c r="G50" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="54" t="s">
+        <v>74</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -4453,32 +4458,18 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="84.75" customHeight="1">
+    <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>69</v>
-      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="J51" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51" s="53" t="s">
-        <v>74</v>
-      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -4497,12 +4488,16 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4525,20 +4520,32 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>75</v>
+      <c r="B53" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>75</v>
+      <c r="G53" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="H53" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4555,34 +4562,32 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" ht="40.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="36" t="s">
-        <v>52</v>
+      <c r="B54" s="56" t="s">
+        <v>76</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>53</v>
+      <c r="C54" s="57" t="s">
+        <v>58</v>
       </c>
-      <c r="D54" s="36" t="s">
-        <v>54</v>
+      <c r="D54" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="36" t="s">
-        <v>55</v>
+      <c r="G54" s="58" t="s">
+        <v>78</v>
       </c>
-      <c r="H54" s="36" t="s">
-        <v>56</v>
+      <c r="H54" s="58" t="s">
+        <v>79</v>
       </c>
-      <c r="I54" s="36" t="s">
-        <v>27</v>
+      <c r="I54" s="58" t="s">
+        <v>80</v>
       </c>
-      <c r="J54" s="36" t="s">
-        <v>28</v>
+      <c r="J54" s="58" t="s">
+        <v>81</v>
       </c>
-      <c r="K54" s="36" t="s">
-        <v>54</v>
-      </c>
+      <c r="K54" s="59"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4601,30 +4606,32 @@
     </row>
     <row r="55" ht="40.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="55" t="s">
-        <v>76</v>
+      <c r="B55" s="60" t="s">
+        <v>82</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="56" t="s">
-        <v>77</v>
+      <c r="D55" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="57" t="s">
-        <v>78</v>
+      <c r="G55" s="53" t="s">
+        <v>84</v>
       </c>
-      <c r="H55" s="57" t="s">
-        <v>79</v>
+      <c r="H55" s="63" t="s">
+        <v>85</v>
       </c>
-      <c r="I55" s="57" t="s">
-        <v>80</v>
+      <c r="I55" s="63" t="s">
+        <v>86</v>
       </c>
-      <c r="J55" s="57" t="s">
-        <v>81</v>
+      <c r="J55" s="63" t="s">
+        <v>87</v>
       </c>
-      <c r="K55" s="58"/>
+      <c r="K55" s="64" t="s">
+        <v>88</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4643,32 +4650,22 @@
     </row>
     <row r="56" ht="40.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="59" t="s">
-        <v>82</v>
+      <c r="B56" s="65" t="s">
+        <v>89</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="61" t="s">
-        <v>83</v>
+      <c r="D56" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="K56" s="63" t="s">
-        <v>88</v>
-      </c>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4687,22 +4684,32 @@
     </row>
     <row r="57" ht="40.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="64" t="s">
-        <v>89</v>
+      <c r="B57" s="60" t="s">
+        <v>90</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="65" t="s">
-        <v>62</v>
+      <c r="D57" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
+      <c r="G57" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57" s="71" t="s">
+        <v>93</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4719,34 +4726,18 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="40.5" customHeight="1">
+    <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>91</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="K58" s="70" t="s">
-        <v>93</v>
-      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4765,12 +4756,16 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -4793,20 +4788,32 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>94</v>
+      <c r="B60" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="C60" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>95</v>
+      <c r="G60" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="H60" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4825,32 +4832,22 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="36" t="s">
-        <v>52</v>
+      <c r="B61" s="51" t="s">
+        <v>96</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>53</v>
+      <c r="C61" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D61" s="36" t="s">
-        <v>54</v>
+      <c r="D61" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>54</v>
-      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -4867,24 +4864,32 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" ht="16.5" customHeight="1">
+    <row r="62" ht="67.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="50" t="s">
-        <v>96</v>
+      <c r="B62" s="72"/>
+      <c r="C62" s="73" t="s">
+        <v>98</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>97</v>
+      <c r="D62" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
+      <c r="G62" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="J62" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" s="75" t="s">
+        <v>104</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4901,32 +4906,24 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="67.5" customHeight="1">
+    <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="72" t="s">
-        <v>98</v>
+      <c r="B63" s="51" t="s">
+        <v>105</v>
       </c>
-      <c r="D63" s="73" t="s">
-        <v>99</v>
+      <c r="C63" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="J63" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="K63" s="74" t="s">
-        <v>104</v>
-      </c>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4943,24 +4940,32 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" ht="112.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="50" t="s">
-        <v>105</v>
-      </c>
+      <c r="B64" s="52"/>
       <c r="C64" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>97</v>
+      <c r="D64" s="76" t="s">
+        <v>106</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
+      <c r="G64" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="K64" s="75" t="s">
+        <v>111</v>
+      </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4977,32 +4982,24 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="112.5" customHeight="1">
+    <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="51"/>
+      <c r="B65" s="78" t="s">
+        <v>112</v>
+      </c>
       <c r="C65" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="73" t="s">
-        <v>106</v>
+      <c r="D65" s="12" t="s">
+        <v>97</v>
       </c>
-      <c r="E65" s="75"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H65" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="J65" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="K65" s="74" t="s">
-        <v>111</v>
-      </c>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -5019,24 +5016,32 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" ht="55.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="50" t="s">
-        <v>112</v>
-      </c>
+      <c r="B66" s="72"/>
       <c r="C66" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>97</v>
+      <c r="D66" s="74" t="s">
+        <v>113</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
+      <c r="G66" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="K66" s="80" t="s">
+        <v>118</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -5053,32 +5058,24 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="55.5" customHeight="1">
+    <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="71"/>
+      <c r="B67" s="51" t="s">
+        <v>119</v>
+      </c>
       <c r="C67" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="73" t="s">
-        <v>113</v>
+      <c r="D67" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="K67" s="74" t="s">
-        <v>116</v>
-      </c>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -5095,24 +5092,32 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="50" t="s">
-        <v>117</v>
-      </c>
+    <row r="68" ht="100.5" customHeight="1">
+      <c r="A68" s="81"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>97</v>
+      <c r="D68" s="76" t="s">
+        <v>120</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
+      <c r="G68" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68" s="75" t="s">
+        <v>125</v>
+      </c>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -5129,225 +5134,191 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" ht="66.0" customHeight="1">
-      <c r="A69" s="76"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H69" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="J69" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="K69" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-    </row>
-    <row r="71" ht="100.5" customHeight="1">
-      <c r="A71" s="76"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H71" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71" s="53" t="s">
+    <row r="69" ht="47.25" customHeight="1">
+      <c r="A69" s="82"/>
+      <c r="B69" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="K71" s="74" t="s">
+      <c r="C69" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" ht="47.25" customHeight="1">
-      <c r="A72" s="77"/>
-      <c r="B72" s="78" t="s">
+      <c r="E69" s="32"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
+    </row>
+    <row r="70" ht="51.75" customHeight="1">
+      <c r="A70" s="82"/>
+      <c r="B70" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C70" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="79" t="s">
+      <c r="D70" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32"/>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32"/>
-    </row>
-    <row r="73" ht="51.75" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="81" t="s">
+      <c r="E70" s="32"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+    </row>
+    <row r="71" ht="51.0" customHeight="1">
+      <c r="A71" s="82"/>
+      <c r="B71" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C71" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="81" t="s">
+      <c r="D71" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
-      <c r="W73" s="32"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32"/>
-    </row>
-    <row r="74" ht="51.0" customHeight="1">
-      <c r="A74" s="77"/>
-      <c r="B74" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="32"/>
-      <c r="V74" s="32"/>
-      <c r="W74" s="32"/>
-      <c r="X74" s="32"/>
-      <c r="Y74" s="32"/>
-      <c r="Z74" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="32"/>
+      <c r="Z71" s="32"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
@@ -5545,34 +5516,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-    </row>
+    <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
@@ -5629,7 +5573,34 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+    </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
@@ -30942,109 +30913,24 @@
       <c r="Y989" s="6"/>
       <c r="Z989" s="6"/>
     </row>
-    <row r="990" ht="16.5" customHeight="1">
-      <c r="A990" s="6"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
-      <c r="D990" s="6"/>
-      <c r="E990" s="6"/>
-      <c r="F990" s="6"/>
-      <c r="G990" s="6"/>
-      <c r="H990" s="6"/>
-      <c r="I990" s="6"/>
-      <c r="J990" s="6"/>
-      <c r="K990" s="6"/>
-      <c r="L990" s="6"/>
-      <c r="M990" s="6"/>
-      <c r="N990" s="6"/>
-      <c r="O990" s="6"/>
-      <c r="P990" s="6"/>
-      <c r="Q990" s="6"/>
-      <c r="R990" s="6"/>
-      <c r="S990" s="6"/>
-      <c r="T990" s="6"/>
-      <c r="U990" s="6"/>
-      <c r="V990" s="6"/>
-      <c r="W990" s="6"/>
-      <c r="X990" s="6"/>
-      <c r="Y990" s="6"/>
-      <c r="Z990" s="6"/>
-    </row>
-    <row r="991" ht="16.5" customHeight="1">
-      <c r="A991" s="6"/>
-      <c r="B991" s="6"/>
-      <c r="C991" s="6"/>
-      <c r="D991" s="6"/>
-      <c r="E991" s="6"/>
-      <c r="F991" s="6"/>
-      <c r="G991" s="6"/>
-      <c r="H991" s="6"/>
-      <c r="I991" s="6"/>
-      <c r="J991" s="6"/>
-      <c r="K991" s="6"/>
-      <c r="L991" s="6"/>
-      <c r="M991" s="6"/>
-      <c r="N991" s="6"/>
-      <c r="O991" s="6"/>
-      <c r="P991" s="6"/>
-      <c r="Q991" s="6"/>
-      <c r="R991" s="6"/>
-      <c r="S991" s="6"/>
-      <c r="T991" s="6"/>
-      <c r="U991" s="6"/>
-      <c r="V991" s="6"/>
-      <c r="W991" s="6"/>
-      <c r="X991" s="6"/>
-      <c r="Y991" s="6"/>
-      <c r="Z991" s="6"/>
-    </row>
-    <row r="992" ht="16.5" customHeight="1">
-      <c r="A992" s="6"/>
-      <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
-      <c r="D992" s="6"/>
-      <c r="E992" s="6"/>
-      <c r="F992" s="6"/>
-      <c r="G992" s="6"/>
-      <c r="H992" s="6"/>
-      <c r="I992" s="6"/>
-      <c r="J992" s="6"/>
-      <c r="K992" s="6"/>
-      <c r="L992" s="6"/>
-      <c r="M992" s="6"/>
-      <c r="N992" s="6"/>
-      <c r="O992" s="6"/>
-      <c r="P992" s="6"/>
-      <c r="Q992" s="6"/>
-      <c r="R992" s="6"/>
-      <c r="S992" s="6"/>
-      <c r="T992" s="6"/>
-      <c r="U992" s="6"/>
-      <c r="V992" s="6"/>
-      <c r="W992" s="6"/>
-      <c r="X992" s="6"/>
-      <c r="Y992" s="6"/>
-      <c r="Z992" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B22:H24"/>
+    <mergeCell ref="B21:H23"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -31065,7 +30951,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="25.29"/>
+    <col customWidth="1" min="3" max="3" width="27.0"/>
     <col customWidth="1" min="4" max="4" width="35.43"/>
     <col customWidth="1" min="5" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="11.57"/>
@@ -31158,903 +31044,1930 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="84" t="s">
-        <v>134</v>
+      <c r="B4" s="89" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="91" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="27"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="87">
+      <c r="A6" s="92"/>
+      <c r="B6" s="53">
         <v>1.0</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>135</v>
+      <c r="D6" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-    </row>
-    <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="87">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+    </row>
+    <row r="7" ht="47.25" customHeight="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="53">
         <v>2.0</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-    </row>
-    <row r="8" ht="60.75" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="92">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+    </row>
+    <row r="8" ht="27.0" customHeight="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="94">
         <v>3.0</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-    </row>
-    <row r="9" ht="60.75" customHeight="1">
-      <c r="B9" s="96">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+    </row>
+    <row r="9" ht="45.75" customHeight="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="95">
         <v>4.0</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-    </row>
-    <row r="10" ht="40.5" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92">
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+    </row>
+    <row r="10" ht="23.25" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94">
         <v>5.0</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="48" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="102" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="103" t="s">
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="104" t="s">
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="104" t="s">
+      <c r="D18" s="92"/>
+      <c r="E18" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="104" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="105" t="s">
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="104" t="s">
+      <c r="D20" s="92"/>
+      <c r="E20" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="104" t="s">
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="104" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="103" t="s">
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="103" t="s">
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="104" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="103" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="92"/>
+      <c r="B28" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="100"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="100"/>
-      <c r="B26" s="106" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="106" t="s">
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="92"/>
+      <c r="B32" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="106" t="s">
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="92"/>
+      <c r="B34" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="106" t="s">
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="92"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="92"/>
+      <c r="B35" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="100"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="92"/>
+      <c r="B37" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="100"/>
-      <c r="B35" s="106" t="s">
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="92"/>
+      <c r="B38" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="103" t="s">
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="92"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" s="103" t="s">
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="95"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="107" t="s">
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="92"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="92"/>
+      <c r="B43" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="107" t="s">
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="92"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="92"/>
+      <c r="B44" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="95"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="95"/>
-      <c r="B43" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="95"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
+      <c r="W45" s="103"/>
+      <c r="X45" s="103"/>
+      <c r="Y45" s="103"/>
+      <c r="Z45" s="103"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
+      <c r="U47" s="104"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="104"/>
+      <c r="Y47" s="104"/>
+      <c r="Z47" s="104"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="104"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="104"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="104"/>
+      <c r="U51" s="104"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="104"/>
+      <c r="X51" s="104"/>
+      <c r="Y51" s="104"/>
+      <c r="Z51" s="104"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="104"/>
+      <c r="P52" s="104"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="104"/>
+      <c r="U52" s="104"/>
+      <c r="V52" s="104"/>
+      <c r="W52" s="104"/>
+      <c r="X52" s="104"/>
+      <c r="Y52" s="104"/>
+      <c r="Z52" s="104"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
+      <c r="P53" s="104"/>
+      <c r="Q53" s="104"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
+      <c r="U53" s="104"/>
+      <c r="V53" s="104"/>
+      <c r="W53" s="104"/>
+      <c r="X53" s="104"/>
+      <c r="Y53" s="104"/>
+      <c r="Z53" s="104"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="104"/>
+      <c r="O54" s="104"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="104"/>
+      <c r="U57" s="104"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
+      <c r="X57" s="104"/>
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="104"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
+      <c r="U59" s="104"/>
+      <c r="V59" s="104"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="104"/>
+      <c r="Z59" s="104"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="104"/>
+      <c r="U60" s="104"/>
+      <c r="V60" s="104"/>
+      <c r="W60" s="104"/>
+      <c r="X60" s="104"/>
+      <c r="Y60" s="104"/>
+      <c r="Z60" s="104"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="104"/>
+      <c r="M61" s="104"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="104"/>
+      <c r="Q61" s="104"/>
+      <c r="R61" s="104"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="104"/>
+      <c r="U61" s="104"/>
+      <c r="V61" s="104"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="104"/>
+      <c r="Y61" s="104"/>
+      <c r="Z61" s="104"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="104"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="104"/>
+      <c r="Z63" s="104"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="104"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
+      <c r="Y65" s="104"/>
+      <c r="Z65" s="104"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="104"/>
+      <c r="Z66" s="104"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="104"/>
+      <c r="P68" s="104"/>
+      <c r="Q68" s="104"/>
+      <c r="R68" s="104"/>
+      <c r="S68" s="104"/>
+      <c r="T68" s="104"/>
+      <c r="U68" s="104"/>
+      <c r="V68" s="104"/>
+      <c r="W68" s="104"/>
+      <c r="X68" s="104"/>
+      <c r="Y68" s="104"/>
+      <c r="Z68" s="104"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" s="104"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="104"/>
+      <c r="P69" s="104"/>
+      <c r="Q69" s="104"/>
+      <c r="R69" s="104"/>
+      <c r="S69" s="104"/>
+      <c r="T69" s="104"/>
+      <c r="U69" s="104"/>
+      <c r="V69" s="104"/>
+      <c r="W69" s="104"/>
+      <c r="X69" s="104"/>
+      <c r="Y69" s="104"/>
+      <c r="Z69" s="104"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="104"/>
+      <c r="R70" s="104"/>
+      <c r="S70" s="104"/>
+      <c r="T70" s="104"/>
+      <c r="U70" s="104"/>
+      <c r="V70" s="104"/>
+      <c r="W70" s="104"/>
+      <c r="X70" s="104"/>
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+    </row>
     <row r="71" ht="18.75" customHeight="1"/>
     <row r="72" ht="18.75" customHeight="1"/>
     <row r="73" ht="18.75" customHeight="1"/>
